--- a/src/test/resources/data/AdactinHotelData.xlsx
+++ b/src/test/resources/data/AdactinHotelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srije\eclipse-workspace\AdactinHotel\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A35ED-A77B-4B60-A8E6-4703F6756D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FBD9E-A178-4D20-AF68-5AC3C3BA6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D760F9DC-97CA-4717-8B56-B587B60344B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{D760F9DC-97CA-4717-8B56-B587B60344B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B186D-8DAC-4595-92C4-42CBE2C28B7E}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
@@ -2090,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A01BC43-3B25-4999-80D4-B8C3A43EB297}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
